--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_1.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_24</t>
+          <t>model_11_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1019381393418262</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4065575274187504</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.944332225171415</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.842537196458069</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F2" t="n">
-        <v>1.219520807266235</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>1.155999660491943</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H2" t="n">
-        <v>6.131556987762451</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I2" t="n">
-        <v>3.497437715530396</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_23</t>
+          <t>model_11_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1006061613884492</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.407190466794492</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.938424453100877</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8399170236387727</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F3" t="n">
-        <v>1.21804678440094</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>1.15476655960083</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H3" t="n">
-        <v>6.122373104095459</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I3" t="n">
-        <v>3.492464065551758</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_22</t>
+          <t>model_11_1_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09929467883994669</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4076440157558833</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.932315841075531</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8373160917427305</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F4" t="n">
-        <v>1.21659529209137</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>1.153883218765259</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H4" t="n">
-        <v>6.112877368927002</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I4" t="n">
-        <v>3.487527132034302</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_21</t>
+          <t>model_11_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09788700145675411</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4081849291121977</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.925844868076515</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8345283742376612</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F5" t="n">
-        <v>1.21503746509552</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152829527854919</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H5" t="n">
-        <v>6.102817535400391</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I5" t="n">
-        <v>3.482235908508301</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_20</t>
+          <t>model_11_1_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09654831001739916</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.408792995147684</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.919712895237569</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8318352211883446</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F6" t="n">
-        <v>1.213555932044983</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>1.151645064353943</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H6" t="n">
-        <v>6.09328556060791</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I6" t="n">
-        <v>3.477123737335205</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_19</t>
+          <t>model_11_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09336834244573722</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4095047458087371</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.904714966006738</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8256677594076538</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F7" t="n">
-        <v>1.210036516189575</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>1.150258541107178</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H7" t="n">
-        <v>6.069971084594727</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I7" t="n">
-        <v>3.46541690826416</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_18</t>
+          <t>model_11_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.09084986886840318</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4100165507885498</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.892403790210785</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8206453896292205</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F8" t="n">
-        <v>1.207249402999878</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149261593818665</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H8" t="n">
-        <v>6.050832748413086</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I8" t="n">
-        <v>3.455883741378784</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_17</t>
+          <t>model_11_1_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0770971434211698</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4111137971488645</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.824045961251854</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7937048391279602</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F9" t="n">
-        <v>1.192029118537903</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>1.147124171257019</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H9" t="n">
-        <v>5.944568634033203</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I9" t="n">
-        <v>3.404746055603027</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_16</t>
+          <t>model_11_1_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.06595819647102608</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4129438733088765</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.77007129218933</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.771908642980806</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F10" t="n">
-        <v>1.179701685905457</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>1.143559336662292</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H10" t="n">
-        <v>5.860663890838623</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I10" t="n">
-        <v>3.363373279571533</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_15</t>
+          <t>model_11_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0562443564319508</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4135892762046455</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.721121568810481</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7526928992340012</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F11" t="n">
-        <v>1.168951272964478</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>1.1423020362854</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H11" t="n">
-        <v>5.784570217132568</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I11" t="n">
-        <v>3.326898574829102</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_14</t>
+          <t>model_11_1_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0438431282982894</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41557579470839</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.66013839648121</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7281110383095444</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F12" t="n">
-        <v>1.155226707458496</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>1.138432383537292</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H12" t="n">
-        <v>5.689770698547363</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I12" t="n">
-        <v>3.280238151550293</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_13</t>
+          <t>model_11_1_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03173012688046262</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4167203535207227</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.598524729311103</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7037438390438542</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F13" t="n">
-        <v>1.141821146011353</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>1.136202931404114</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H13" t="n">
-        <v>5.593990802764893</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I13" t="n">
-        <v>3.233985185623169</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="14">
@@ -854,307 +854,307 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06042954087136576</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4207805973920754</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.138419494118212</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5242161808342263</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F14" t="n">
-        <v>1.039827585220337</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>1.128293752670288</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H14" t="n">
-        <v>4.878746509552002</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I14" t="n">
-        <v>2.893212556838989</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_11</t>
+          <t>model_11_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1041598787479752</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.423355740579477</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.919119112222728</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4383001812836702</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9914310574531555</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>1.123277425765991</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H15" t="n">
-        <v>4.537838935852051</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I15" t="n">
-        <v>2.730129480361938</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_10</t>
+          <t>model_11_1_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1785330262744639</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4274525605586289</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.547229684378579</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2927509642243746</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9091218709945679</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>1.115296959877014</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H16" t="n">
-        <v>3.959728002548218</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I16" t="n">
-        <v>2.453853368759155</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_9</t>
+          <t>model_11_1_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2543360269656342</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4258372831843055</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.158267771387988</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1437243739393732</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8252302408218384</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>1.118443489074707</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H17" t="n">
-        <v>3.355077743530273</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I17" t="n">
-        <v>2.170976400375366</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_8</t>
+          <t>model_11_1_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2755518435789168</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4298523764705489</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.056985642222643</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1025099786050465</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8017507195472717</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>1.11062228679657</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H18" t="n">
-        <v>3.197632551193237</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I18" t="n">
-        <v>2.092744827270508</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_7</t>
+          <t>model_11_1_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3092864257967611</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4299400559255162</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.8739903651112999</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.03193685699734483</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7644162774085999</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>1.110451459884644</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H19" t="n">
-        <v>2.913161993026733</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I19" t="n">
-        <v>1.95878529548645</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_6</t>
+          <t>model_11_1_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4461158860911381</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4511504440429978</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1762722012146214</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2484824488694833</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6129865646362305</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.069134593009949</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H20" t="n">
-        <v>1.828542709350586</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I20" t="n">
-        <v>1.426503539085388</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_3</t>
+          <t>model_11_1_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5293386177891544</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3227507192389043</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.946754052927384</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6115304640631277</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5208834409713745</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>1.319251537322998</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08277207612991333</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7373788952827454</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_2</t>
+          <t>model_11_1_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5502813475899873</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4079204238555861</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9560255830350564</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6613763722908296</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4977060258388519</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.153344631195068</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06835926324129105</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6427632570266724</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_0</t>
+          <t>model_11_1_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5537438311146106</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4535487735815955</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9772945521713362</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6943630005056012</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4938740730285645</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>1.064462780952454</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03529614955186844</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5801491141319275</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="24">
@@ -1164,90 +1164,90 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5561659066665785</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4430497562655955</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9597953198691807</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6819149570335659</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F24" t="n">
-        <v>0.491193562746048</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>1.084914326667786</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06249911338090897</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6037775278091431</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_5</t>
+          <t>model_11_1_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5868465871321049</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4824649396433363</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5241158286594598</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5354209918584113</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4572390913963318</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>1.008135318756104</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7397730946540833</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8818471431732178</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_1_4</t>
+          <t>model_11_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6575052508389649</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5484692279178802</v>
+        <v>0.4003320152976594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8042369355734242</v>
+        <v>0.2037968952667155</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6792379365886072</v>
+        <v>0.3509831259012421</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3790407478809357</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8795619010925293</v>
+        <v>0.9894625544548035</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3043182790279388</v>
+        <v>0.8652127385139465</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6088590025901794</v>
+        <v>0.930992066860199</v>
       </c>
     </row>
   </sheetData>
